--- a/Scrum Doc.xlsx
+++ b/Scrum Doc.xlsx
@@ -119,31 +119,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -162,33 +138,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -395,64 +344,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,64 +502,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,11 +906,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="477691304"/>
-        <c:axId val="477689736"/>
+        <c:axId val="73432792"/>
+        <c:axId val="73430440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477691304"/>
+        <c:axId val="73432792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,14 +953,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477689736"/>
+        <c:crossAx val="73430440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477689736"/>
+        <c:axId val="73430440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,7 +997,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477691304"/>
+        <c:crossAx val="73432792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2011,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,64 +2131,64 @@
         <v>41572</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -2471,7 +2420,7 @@
       </c>
       <c r="E7">
         <f t="shared" ref="E7:X7" si="0">SUM(E2:E6)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -2479,75 +2428,75 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -2780,7 +2729,7 @@
       <c r="D11" s="1"/>
       <c r="E11">
         <f t="shared" ref="E11:X11" si="1">SUM(E7,E8:E10)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -2788,75 +2737,75 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -2892,7 +2841,7 @@
         <v>18</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:X12" si="2">SUM(N12,-2)</f>
+        <f t="shared" ref="O12:W12" si="2">SUM(N12,-2)</f>
         <v>16</v>
       </c>
       <c r="P12">
@@ -2939,7 +2888,7 @@
         <v>22</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:M13" si="3">SUM(F13,-4)</f>
+        <f t="shared" ref="G13:L13" si="3">SUM(F13,-4)</f>
         <v>18</v>
       </c>
       <c r="H13">
@@ -2998,16 +2947,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:X1">
-    <cfRule type="timePeriod" dxfId="0" priority="4" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="3" priority="4" timePeriod="today">
       <formula>FLOOR(E1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="1" priority="3" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="lastMonth">
       <formula>AND(MONTH(E1)=MONTH(EDATE(TODAY(),0-1)),YEAR(E1)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="2" priority="2" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(E1,1)&lt;=6,FLOOR(E1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="3" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(E1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3017,6 +2966,26 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Sprint1 backlog'!C11:C11</xm:f>
+              <xm:sqref>D2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Sprint1 backlog'!C12:C12</xm:f>
+              <xm:sqref>D10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries theme="1" tint="0.34998626667073579"/>
           <x14:colorNegative theme="0" tint="-0.249977111117893"/>
@@ -3109,26 +3078,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Sprint1 backlog'!C11:C11</xm:f>
-              <xm:sqref>D2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Sprint1 backlog'!C12:C12</xm:f>
-              <xm:sqref>D10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>

--- a/Scrum Doc.xlsx
+++ b/Scrum Doc.xlsx
@@ -112,9 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,34 +377,34 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,34 +535,34 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,11 +909,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="73432792"/>
-        <c:axId val="73430440"/>
+        <c:axId val="194243064"/>
+        <c:axId val="234011392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="73432792"/>
+        <c:axId val="194243064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,14 +956,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73430440"/>
+        <c:crossAx val="234011392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="73430440"/>
+        <c:axId val="234011392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +1000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73432792"/>
+        <c:crossAx val="194243064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1960,9 +1963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2044,7 +2045,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -2118,7 +2119,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -2161,38 +2162,38 @@
         <v>5</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -2266,7 +2267,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -2309,38 +2310,38 @@
         <v>4</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -2383,37 +2384,38 @@
         <v>8</v>
       </c>
       <c r="O6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="C7">
         <f>SUM(C2:C6)</f>
         <v>32</v>
@@ -2460,47 +2462,47 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8">
@@ -2574,7 +2576,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9">
@@ -2617,38 +2619,38 @@
         <v>8</v>
       </c>
       <c r="O9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10">
@@ -2769,43 +2771,43 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="T11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -2966,26 +2968,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Sprint1 backlog'!C11:C11</xm:f>
-              <xm:sqref>D2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Sprint1 backlog'!C12:C12</xm:f>
-              <xm:sqref>D10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries theme="1" tint="0.34998626667073579"/>
           <x14:colorNegative theme="0" tint="-0.249977111117893"/>
@@ -3078,6 +3060,26 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Sprint1 backlog'!C11:C11</xm:f>
+              <xm:sqref>D2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Sprint1 backlog'!C12:C12</xm:f>
+              <xm:sqref>D10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>

--- a/Scrum Doc.xlsx
+++ b/Scrum Doc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11280" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1 backlog" sheetId="1" r:id="rId1"/>
@@ -909,11 +909,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="194243064"/>
-        <c:axId val="234011392"/>
+        <c:axId val="190327152"/>
+        <c:axId val="190327936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="194243064"/>
+        <c:axId val="190327152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,14 +956,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234011392"/>
+        <c:crossAx val="190327936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="234011392"/>
+        <c:axId val="190327936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,7 +1000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194243064"/>
+        <c:crossAx val="190327152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1644,15 +1644,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1781175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:colOff>2266950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1963,7 +1963,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O14" sqref="O14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2963,11 +2966,31 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Sprint1 backlog'!C11:C11</xm:f>
+              <xm:sqref>D2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Sprint1 backlog'!C12:C12</xm:f>
+              <xm:sqref>D10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries theme="1" tint="0.34998626667073579"/>
           <x14:colorNegative theme="0" tint="-0.249977111117893"/>
@@ -3060,26 +3083,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Sprint1 backlog'!C11:C11</xm:f>
-              <xm:sqref>D2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Sprint1 backlog'!C12:C12</xm:f>
-              <xm:sqref>D10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
